--- a/inputs/data_raw/Data_SJFC_Decrements_AV2020.xlsx
+++ b/inputs/data_raw/Data_SJFC_Decrements_AV2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410F9599-DB8C-4AE0-9836-D73D9AC572E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF6A17C-F0B6-4990-99E5-4440E398000B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="43" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="77">
   <si>
     <t>TOC</t>
   </si>
@@ -531,12 +531,6 @@
     </r>
   </si>
   <si>
-    <t>60+</t>
-  </si>
-  <si>
-    <t>C6:E14</t>
-  </si>
-  <si>
     <t>Source AV2020 ep56</t>
   </si>
   <si>
@@ -581,9 +575,6 @@
       </rPr>
       <t>15+</t>
     </r>
-  </si>
-  <si>
-    <t>C6:E22</t>
   </si>
   <si>
     <t>AV2020, ep 57</t>
@@ -722,6 +713,12 @@
   <si>
     <t>C7:D23</t>
   </si>
+  <si>
+    <t>D6:E14</t>
+  </si>
+  <si>
+    <t>D6:E22</t>
+  </si>
 </sst>
 </file>
 
@@ -730,7 +727,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="14" x14ac:knownFonts="1">
     <font>
@@ -908,12 +905,6 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="15"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1" indent="5"/>
     </xf>
@@ -926,7 +917,7 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -978,15 +969,21 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="9"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="15"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1953,18 +1950,18 @@
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D7" s="18" t="s">
@@ -2014,7 +2011,7 @@
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="10"/>
-      <c r="L8" s="33" t="s">
+      <c r="L8" s="31" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2022,27 +2019,27 @@
       <c r="C9">
         <v>55</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="39">
         <f>M12</f>
         <v>0.03</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="39">
         <f t="shared" ref="E9:H9" si="0">N12</f>
         <v>0.05</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="39">
         <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="39">
         <f t="shared" si="0"/>
         <v>0.1</v>
       </c>
-      <c r="H9" s="41">
+      <c r="H9" s="39">
         <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="L9" s="33" t="s">
+      <c r="L9" s="31" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2050,28 +2047,28 @@
       <c r="C10">
         <v>56</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="39">
         <f t="shared" ref="D10:D13" si="1">M13</f>
         <v>0.02</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="39">
         <f t="shared" ref="E10:E14" si="2">N13</f>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="39">
         <f t="shared" ref="F10:F14" si="3">O13</f>
         <v>0.04</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="39">
         <f t="shared" ref="G10:G14" si="4">P13</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H10" s="41">
+      <c r="H10" s="39">
         <f t="shared" ref="H10:H14" si="5">Q13</f>
         <v>0.105</v>
       </c>
       <c r="J10" s="11"/>
-      <c r="L10" s="33" t="s">
+      <c r="L10" s="31" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2079,43 +2076,43 @@
       <c r="C11">
         <v>57</v>
       </c>
-      <c r="D11" s="41">
+      <c r="D11" s="39">
         <f t="shared" si="1"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="E11" s="41">
+      <c r="E11" s="39">
         <f t="shared" si="2"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="39">
         <f t="shared" si="3"/>
         <v>0.05</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="39">
         <f t="shared" si="4"/>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H11" s="41">
+      <c r="H11" s="39">
         <f t="shared" si="5"/>
         <v>0.1275</v>
       </c>
       <c r="J11" s="11"/>
-      <c r="L11" s="34" t="s">
+      <c r="L11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="36" t="s">
+      <c r="N11" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="O11" s="36" t="s">
+      <c r="O11" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="P11" s="36" t="s">
+      <c r="P11" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="Q11" s="36" t="s">
+      <c r="Q11" s="34" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2123,43 +2120,43 @@
       <c r="C12">
         <v>58</v>
       </c>
-      <c r="D12" s="41">
+      <c r="D12" s="39">
         <f t="shared" si="1"/>
         <v>0.03</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="39">
         <f t="shared" si="2"/>
         <v>5.5E-2</v>
       </c>
-      <c r="F12" s="41">
+      <c r="F12" s="39">
         <f t="shared" si="3"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="39">
         <f t="shared" si="4"/>
         <v>0.11</v>
       </c>
-      <c r="H12" s="41">
+      <c r="H12" s="39">
         <f t="shared" si="5"/>
         <v>0.16500000000000001</v>
       </c>
       <c r="J12" s="11"/>
-      <c r="L12" s="28">
+      <c r="L12" s="26">
         <v>55</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="36">
         <v>0.03</v>
       </c>
-      <c r="N12" s="39">
+      <c r="N12" s="37">
         <v>0.05</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="37">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="37">
         <v>0.1</v>
       </c>
-      <c r="Q12" s="39">
+      <c r="Q12" s="37">
         <v>0.15</v>
       </c>
     </row>
@@ -2167,43 +2164,43 @@
       <c r="C13">
         <v>59</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="39">
         <f t="shared" si="1"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="39">
         <f t="shared" si="2"/>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="39">
         <f t="shared" si="3"/>
         <v>0.09</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="39">
         <f t="shared" si="4"/>
         <v>0.13500000000000001</v>
       </c>
-      <c r="H13" s="41">
+      <c r="H13" s="39">
         <f t="shared" si="5"/>
         <v>0.20250000000000001</v>
       </c>
       <c r="J13" s="11"/>
-      <c r="L13" s="28">
+      <c r="L13" s="26">
         <v>56</v>
       </c>
-      <c r="M13" s="38">
+      <c r="M13" s="36">
         <v>0.02</v>
       </c>
-      <c r="N13" s="39">
+      <c r="N13" s="37">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="O13" s="39">
+      <c r="O13" s="37">
         <v>0.04</v>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="37">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="37">
         <v>0.105</v>
       </c>
     </row>
@@ -2211,43 +2208,43 @@
       <c r="C14">
         <v>60</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="39">
         <f>M17</f>
         <v>0.04</v>
       </c>
-      <c r="E14" s="41">
+      <c r="E14" s="39">
         <f t="shared" si="2"/>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="39">
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-      <c r="G14" s="41">
+      <c r="G14" s="39">
         <f t="shared" si="4"/>
         <v>0.14499999999999999</v>
       </c>
-      <c r="H14" s="41">
+      <c r="H14" s="39">
         <f t="shared" si="5"/>
         <v>0.2175</v>
       </c>
       <c r="J14" s="11"/>
-      <c r="L14" s="28">
+      <c r="L14" s="26">
         <v>57</v>
       </c>
-      <c r="M14" s="38">
+      <c r="M14" s="36">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N14" s="39">
+      <c r="N14" s="37">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="O14" s="39">
+      <c r="O14" s="37">
         <v>0.05</v>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="37">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="Q14" s="39">
+      <c r="Q14" s="37">
         <v>0.1275</v>
       </c>
     </row>
@@ -2255,42 +2252,42 @@
       <c r="C15">
         <v>61</v>
       </c>
-      <c r="D15" s="41">
+      <c r="D15" s="39">
         <f>M17</f>
         <v>0.04</v>
       </c>
-      <c r="E15" s="41">
+      <c r="E15" s="39">
         <f t="shared" ref="E15:H15" si="6">N17</f>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="F15" s="41">
+      <c r="F15" s="39">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="39">
         <f t="shared" si="6"/>
         <v>0.14499999999999999</v>
       </c>
-      <c r="H15" s="41">
+      <c r="H15" s="39">
         <f t="shared" si="6"/>
         <v>0.2175</v>
       </c>
-      <c r="L15" s="28">
+      <c r="L15" s="26">
         <v>58</v>
       </c>
-      <c r="M15" s="38">
+      <c r="M15" s="36">
         <v>0.03</v>
       </c>
-      <c r="N15" s="39">
+      <c r="N15" s="37">
         <v>5.5E-2</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="37">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="37">
         <v>0.11</v>
       </c>
-      <c r="Q15" s="39">
+      <c r="Q15" s="37">
         <v>0.16500000000000001</v>
       </c>
     </row>
@@ -2298,42 +2295,42 @@
       <c r="C16">
         <v>62</v>
       </c>
-      <c r="D16" s="41">
+      <c r="D16" s="39">
         <f>M18</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="39">
         <f t="shared" ref="E16:H16" si="7">N18</f>
         <v>0.125</v>
       </c>
-      <c r="F16" s="41">
+      <c r="F16" s="39">
         <f t="shared" si="7"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="39">
         <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
-      <c r="H16" s="41">
+      <c r="H16" s="39">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="L16" s="28">
+      <c r="L16" s="26">
         <v>59</v>
       </c>
-      <c r="M16" s="38">
+      <c r="M16" s="36">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="N16" s="39">
+      <c r="N16" s="37">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="O16" s="39">
+      <c r="O16" s="37">
         <v>0.09</v>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="37">
         <v>0.13500000000000001</v>
       </c>
-      <c r="Q16" s="39">
+      <c r="Q16" s="37">
         <v>0.20250000000000001</v>
       </c>
     </row>
@@ -2341,42 +2338,42 @@
       <c r="C17">
         <v>63</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="39">
         <f>M$19</f>
         <v>0.05</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="39">
         <f t="shared" ref="E17:H17" si="8">N$19</f>
         <v>0.1</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="39">
         <f t="shared" si="8"/>
         <v>0.15</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="39">
         <f t="shared" si="8"/>
         <v>0.25</v>
       </c>
-      <c r="H17" s="41">
+      <c r="H17" s="39">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L17" s="30" t="s">
+      <c r="L17" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="M17" s="38">
+      <c r="M17" s="36">
         <v>0.04</v>
       </c>
-      <c r="N17" s="39">
+      <c r="N17" s="37">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="O17" s="39">
+      <c r="O17" s="37">
         <v>0.1</v>
       </c>
-      <c r="P17" s="39">
+      <c r="P17" s="37">
         <v>0.14499999999999999</v>
       </c>
-      <c r="Q17" s="39">
+      <c r="Q17" s="37">
         <v>0.2175</v>
       </c>
     </row>
@@ -2384,42 +2381,42 @@
       <c r="C18">
         <v>64</v>
       </c>
-      <c r="D18" s="41">
+      <c r="D18" s="39">
         <f t="shared" ref="D18:D23" si="9">M$19</f>
         <v>0.05</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="39">
         <f t="shared" ref="E18:E23" si="10">N$19</f>
         <v>0.1</v>
       </c>
-      <c r="F18" s="41">
+      <c r="F18" s="39">
         <f t="shared" ref="F18:F23" si="11">O$19</f>
         <v>0.15</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="39">
         <f t="shared" ref="G18:G23" si="12">P$19</f>
         <v>0.25</v>
       </c>
-      <c r="H18" s="41">
+      <c r="H18" s="39">
         <f t="shared" ref="H18:H23" si="13">Q$19</f>
         <v>1</v>
       </c>
-      <c r="L18" s="28">
+      <c r="L18" s="26">
         <v>62</v>
       </c>
-      <c r="M18" s="38">
+      <c r="M18" s="36">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="N18" s="39">
+      <c r="N18" s="37">
         <v>0.125</v>
       </c>
-      <c r="O18" s="39">
+      <c r="O18" s="37">
         <v>0.17499999999999999</v>
       </c>
-      <c r="P18" s="39">
+      <c r="P18" s="37">
         <v>0.25</v>
       </c>
-      <c r="Q18" s="39">
+      <c r="Q18" s="37">
         <v>1</v>
       </c>
     </row>
@@ -2427,42 +2424,42 @@
       <c r="C19">
         <v>65</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="39">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="E19" s="41">
+      <c r="E19" s="39">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="39">
         <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="39">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="H19" s="41">
+      <c r="H19" s="39">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="L19" s="30" t="s">
+      <c r="L19" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="38">
+      <c r="M19" s="36">
         <v>0.05</v>
       </c>
-      <c r="N19" s="39">
+      <c r="N19" s="37">
         <v>0.1</v>
       </c>
-      <c r="O19" s="39">
+      <c r="O19" s="37">
         <v>0.15</v>
       </c>
-      <c r="P19" s="39">
+      <c r="P19" s="37">
         <v>0.25</v>
       </c>
-      <c r="Q19" s="39">
+      <c r="Q19" s="37">
         <v>1</v>
       </c>
     </row>
@@ -2470,42 +2467,42 @@
       <c r="C20">
         <v>66</v>
       </c>
-      <c r="D20" s="41">
+      <c r="D20" s="39">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="E20" s="41">
+      <c r="E20" s="39">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="F20" s="41">
+      <c r="F20" s="39">
         <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="39">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="H20" s="41">
+      <c r="H20" s="39">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="L20" s="37" t="s">
+      <c r="L20" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="40">
+      <c r="M20" s="38">
         <v>1</v>
       </c>
-      <c r="N20" s="39">
+      <c r="N20" s="37">
         <v>1</v>
       </c>
-      <c r="O20" s="39">
+      <c r="O20" s="37">
         <v>1</v>
       </c>
-      <c r="P20" s="39">
+      <c r="P20" s="37">
         <v>1</v>
       </c>
-      <c r="Q20" s="39">
+      <c r="Q20" s="37">
         <v>1</v>
       </c>
     </row>
@@ -2513,23 +2510,23 @@
       <c r="C21">
         <v>67</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="39">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="39">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="F21" s="41">
+      <c r="F21" s="39">
         <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="39">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="39">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
@@ -2538,23 +2535,23 @@
       <c r="C22">
         <v>68</v>
       </c>
-      <c r="D22" s="41">
+      <c r="D22" s="39">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="E22" s="41">
+      <c r="E22" s="39">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="F22" s="41">
+      <c r="F22" s="39">
         <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="39">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="H22" s="41">
+      <c r="H22" s="39">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
@@ -2563,23 +2560,23 @@
       <c r="C23">
         <v>69</v>
       </c>
-      <c r="D23" s="41">
+      <c r="D23" s="39">
         <f t="shared" si="9"/>
         <v>0.05</v>
       </c>
-      <c r="E23" s="41">
+      <c r="E23" s="39">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="39">
         <f t="shared" si="11"/>
         <v>0.15</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="39">
         <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
-      <c r="H23" s="41">
+      <c r="H23" s="39">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
@@ -2588,23 +2585,23 @@
       <c r="C24">
         <v>70</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="39">
         <f>M20</f>
         <v>1</v>
       </c>
-      <c r="E24" s="41">
+      <c r="E24" s="39">
         <f t="shared" ref="E24:H24" si="14">N20</f>
         <v>1</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="39">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="39">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="H24" s="41">
+      <c r="H24" s="39">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
@@ -2634,31 +2631,31 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="33" t="s">
-        <v>75</v>
+      <c r="C5" s="31" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="47"/>
+      <c r="D6" s="50" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="50"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="48">
+      <c r="C7" s="45">
         <v>0</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <v>3.75</v>
       </c>
       <c r="F7">
@@ -2667,10 +2664,10 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="48">
+      <c r="C8" s="45">
         <v>1</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="29">
         <v>3</v>
       </c>
       <c r="F8">
@@ -2679,10 +2676,10 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="48">
+      <c r="C9" s="45">
         <v>2</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="29">
         <v>2.5</v>
       </c>
       <c r="F9">
@@ -2691,10 +2688,10 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="48">
+      <c r="C10" s="45">
         <v>3</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="29">
         <v>2.15</v>
       </c>
       <c r="F10">
@@ -2703,10 +2700,10 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="48">
+      <c r="C11" s="45">
         <v>4</v>
       </c>
-      <c r="D11" s="31">
+      <c r="D11" s="29">
         <v>1.85</v>
       </c>
       <c r="F11">
@@ -2715,10 +2712,10 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="48">
+      <c r="C12" s="45">
         <v>5</v>
       </c>
-      <c r="D12" s="31">
+      <c r="D12" s="29">
         <v>1.6</v>
       </c>
       <c r="F12">
@@ -2727,10 +2724,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="48">
+      <c r="C13" s="45">
         <v>6</v>
       </c>
-      <c r="D13" s="31">
+      <c r="D13" s="29">
         <v>1.4</v>
       </c>
       <c r="F13">
@@ -2739,10 +2736,10 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="48">
+      <c r="C14" s="45">
         <v>7</v>
       </c>
-      <c r="D14" s="31">
+      <c r="D14" s="29">
         <v>1.2</v>
       </c>
       <c r="F14">
@@ -2751,10 +2748,10 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="43">
+      <c r="C15" s="41">
         <v>8</v>
       </c>
-      <c r="D15" s="31">
+      <c r="D15" s="29">
         <v>1</v>
       </c>
       <c r="F15">
@@ -2763,10 +2760,10 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="43">
+      <c r="C16" s="41">
         <v>9</v>
       </c>
-      <c r="D16" s="31">
+      <c r="D16" s="29">
         <v>0.85</v>
       </c>
       <c r="F16">
@@ -2775,10 +2772,10 @@
       </c>
     </row>
     <row r="17" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="43">
+      <c r="C17" s="41">
         <v>10</v>
       </c>
-      <c r="D17" s="31">
+      <c r="D17" s="29">
         <v>0.7</v>
       </c>
       <c r="F17">
@@ -2787,10 +2784,10 @@
       </c>
     </row>
     <row r="18" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="43">
+      <c r="C18" s="41">
         <v>11</v>
       </c>
-      <c r="D18" s="31">
+      <c r="D18" s="29">
         <v>0.55000000000000004</v>
       </c>
       <c r="F18">
@@ -2799,10 +2796,10 @@
       </c>
     </row>
     <row r="19" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="43">
+      <c r="C19" s="41">
         <v>12</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="29">
         <v>0.45</v>
       </c>
       <c r="F19">
@@ -2811,10 +2808,10 @@
       </c>
     </row>
     <row r="20" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="43">
+      <c r="C20" s="41">
         <v>13</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="29">
         <v>0.3</v>
       </c>
       <c r="F20">
@@ -2823,10 +2820,10 @@
       </c>
     </row>
     <row r="21" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="43">
+      <c r="C21" s="41">
         <v>14</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="29">
         <v>0.2</v>
       </c>
       <c r="F21">
@@ -2835,10 +2832,10 @@
       </c>
     </row>
     <row r="22" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="31">
+      <c r="C22" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="29">
         <v>0.1</v>
       </c>
       <c r="F22">
@@ -2874,84 +2871,84 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="31" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="31" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="40" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E10" s="43">
+      <c r="E10" s="41">
         <v>25</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="42">
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E11" s="43">
+      <c r="E11" s="41">
         <v>30</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="42">
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E12" s="43">
+      <c r="E12" s="41">
         <v>35</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="42">
         <v>6.13E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E13" s="43">
+      <c r="E13" s="41">
         <v>40</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="42">
         <v>0.1366</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E14" s="43">
+      <c r="E14" s="41">
         <v>45</v>
       </c>
-      <c r="F14" s="44">
+      <c r="F14" s="42">
         <v>0.25190000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E15" s="43">
+      <c r="E15" s="41">
         <v>50</v>
       </c>
-      <c r="F15" s="44">
+      <c r="F15" s="42">
         <v>0.32400000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E16" s="43">
+      <c r="E16" s="41">
         <v>55</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="42">
         <v>0.2631</v>
       </c>
     </row>
     <row r="17" spans="5:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="44">
+      <c r="F17" s="42">
         <v>0.21909999999999999</v>
       </c>
     </row>
@@ -2977,7 +2974,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2992,7 +2989,7 @@
       <c r="C5" s="13">
         <v>0</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="46">
         <f>L8/100</f>
         <v>0.15</v>
       </c>
@@ -3001,45 +2998,45 @@
       <c r="C6" s="13">
         <v>1</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="46">
         <f t="shared" ref="D6:D20" si="0">L9/100</f>
         <v>0.1275</v>
       </c>
-      <c r="K6" s="33" t="s">
-        <v>60</v>
+      <c r="K6" s="31" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C7" s="13">
         <v>2</v>
       </c>
-      <c r="D7" s="49">
+      <c r="D7" s="46">
         <f t="shared" si="0"/>
         <v>0.11749999999999999</v>
       </c>
-      <c r="K7" s="46" t="s">
+      <c r="K7" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="L7" s="47" t="s">
-        <v>61</v>
-      </c>
-      <c r="M7" s="47"/>
-      <c r="N7" s="36" t="s">
-        <v>62</v>
+      <c r="L7" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="M7" s="50"/>
+      <c r="N7" s="34" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C8" s="13">
         <v>3</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="46">
         <f t="shared" si="0"/>
         <v>0.1075</v>
       </c>
-      <c r="K8" s="48">
+      <c r="K8" s="45">
         <v>0</v>
       </c>
-      <c r="L8" s="31">
+      <c r="L8" s="29">
         <v>15</v>
       </c>
     </row>
@@ -3047,14 +3044,14 @@
       <c r="C9" s="13">
         <v>4</v>
       </c>
-      <c r="D9" s="49">
+      <c r="D9" s="46">
         <f t="shared" si="0"/>
         <v>9.7500000000000003E-2</v>
       </c>
-      <c r="K9" s="48">
+      <c r="K9" s="45">
         <v>1</v>
       </c>
-      <c r="L9" s="31">
+      <c r="L9" s="29">
         <v>12.75</v>
       </c>
     </row>
@@ -3062,14 +3059,14 @@
       <c r="C10" s="13">
         <v>5</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="46">
         <f t="shared" si="0"/>
         <v>8.7499999999999994E-2</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="45">
         <v>2</v>
       </c>
-      <c r="L10" s="31">
+      <c r="L10" s="29">
         <v>11.75</v>
       </c>
     </row>
@@ -3077,14 +3074,14 @@
       <c r="C11" s="13">
         <v>6</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="46">
         <f t="shared" si="0"/>
         <v>7.7499999999999999E-2</v>
       </c>
-      <c r="K11" s="48">
+      <c r="K11" s="45">
         <v>3</v>
       </c>
-      <c r="L11" s="31">
+      <c r="L11" s="29">
         <v>10.75</v>
       </c>
     </row>
@@ -3092,14 +3089,14 @@
       <c r="C12" s="13">
         <v>7</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="46">
         <f t="shared" si="0"/>
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="K12" s="48">
+      <c r="K12" s="45">
         <v>4</v>
       </c>
-      <c r="L12" s="31">
+      <c r="L12" s="29">
         <v>9.75</v>
       </c>
     </row>
@@ -3107,14 +3104,14 @@
       <c r="C13" s="13">
         <v>8</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="46">
         <f t="shared" si="0"/>
         <v>5.5E-2</v>
       </c>
-      <c r="K13" s="48">
+      <c r="K13" s="45">
         <v>5</v>
       </c>
-      <c r="L13" s="31">
+      <c r="L13" s="29">
         <v>8.75</v>
       </c>
     </row>
@@ -3122,14 +3119,14 @@
       <c r="C14" s="13">
         <v>9</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="46">
         <f t="shared" si="0"/>
         <v>4.7500000000000001E-2</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="45">
         <v>6</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="29">
         <v>7.75</v>
       </c>
     </row>
@@ -3137,14 +3134,14 @@
       <c r="C15" s="14">
         <v>10</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="46">
         <f t="shared" si="0"/>
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="K15" s="48">
+      <c r="K15" s="45">
         <v>7</v>
       </c>
-      <c r="L15" s="31">
+      <c r="L15" s="29">
         <v>6.5</v>
       </c>
     </row>
@@ -3152,14 +3149,14 @@
       <c r="C16" s="14">
         <v>11</v>
       </c>
-      <c r="D16" s="49">
+      <c r="D16" s="46">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="K16" s="43">
+      <c r="K16" s="41">
         <v>8</v>
       </c>
-      <c r="L16" s="31">
+      <c r="L16" s="29">
         <v>5.5</v>
       </c>
     </row>
@@ -3167,14 +3164,14 @@
       <c r="C17" s="14">
         <v>12</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="46">
         <f t="shared" si="0"/>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="K17" s="43">
+      <c r="K17" s="41">
         <v>9</v>
       </c>
-      <c r="L17" s="31">
+      <c r="L17" s="29">
         <v>4.75</v>
       </c>
     </row>
@@ -3182,14 +3179,14 @@
       <c r="C18" s="14">
         <v>13</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="46">
         <f t="shared" si="0"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="K18" s="43">
+      <c r="K18" s="41">
         <v>10</v>
       </c>
-      <c r="L18" s="31">
+      <c r="L18" s="29">
         <v>4.25</v>
       </c>
     </row>
@@ -3197,14 +3194,14 @@
       <c r="C19" s="14">
         <v>14</v>
       </c>
-      <c r="D19" s="49">
+      <c r="D19" s="46">
         <f t="shared" si="0"/>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="K19" s="43">
+      <c r="K19" s="41">
         <v>11</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="29">
         <v>4</v>
       </c>
     </row>
@@ -3212,41 +3209,41 @@
       <c r="C20" s="14">
         <v>15</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="46">
         <f t="shared" si="0"/>
         <v>3.2500000000000001E-2</v>
       </c>
-      <c r="K20" s="43">
+      <c r="K20" s="41">
         <v>12</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="29">
         <v>3.75</v>
       </c>
     </row>
     <row r="21" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C21" s="14"/>
-      <c r="K21" s="43">
+      <c r="K21" s="41">
         <v>13</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="29">
         <v>3.5</v>
       </c>
     </row>
     <row r="22" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C22" s="14"/>
-      <c r="K22" s="43">
+      <c r="K22" s="41">
         <v>14</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="29">
         <v>3.25</v>
       </c>
     </row>
     <row r="23" spans="3:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="14"/>
-      <c r="K23" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="L23" s="31">
+      <c r="K23" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="L23" s="29">
         <v>3.25</v>
       </c>
     </row>
@@ -3277,226 +3274,226 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C5" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C7" s="47" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C4" s="33" t="s">
+      <c r="D7" s="47" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="33" t="s">
+      <c r="E7" s="47" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C7" s="50" t="s">
+      <c r="F7" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="50" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C8" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="E7" s="50" t="s">
+      <c r="D8" s="29">
+        <v>100</v>
+      </c>
+      <c r="E8" s="29">
+        <v>100</v>
+      </c>
+      <c r="F8" s="29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C9" s="41">
+        <v>5</v>
+      </c>
+      <c r="D9" s="29">
+        <v>25</v>
+      </c>
+      <c r="E9" s="29">
+        <v>15</v>
+      </c>
+      <c r="F9" s="29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C10" s="41">
+        <v>6</v>
+      </c>
+      <c r="D10" s="29">
+        <v>20</v>
+      </c>
+      <c r="E10" s="29">
+        <v>12.5</v>
+      </c>
+      <c r="F10" s="29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C11" s="41">
+        <v>7</v>
+      </c>
+      <c r="D11" s="29">
+        <v>20</v>
+      </c>
+      <c r="E11" s="29">
+        <v>10</v>
+      </c>
+      <c r="F11" s="29">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C12" s="41">
+        <v>8</v>
+      </c>
+      <c r="D12" s="29">
+        <v>20</v>
+      </c>
+      <c r="E12" s="29">
+        <v>10</v>
+      </c>
+      <c r="F12" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C13" s="41">
+        <v>9</v>
+      </c>
+      <c r="D13" s="29">
+        <v>20</v>
+      </c>
+      <c r="E13" s="29">
+        <v>10</v>
+      </c>
+      <c r="F13" s="29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C14" s="41">
+        <v>10</v>
+      </c>
+      <c r="D14" s="29">
+        <v>20</v>
+      </c>
+      <c r="E14" s="29">
+        <v>10</v>
+      </c>
+      <c r="F14" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="41">
+        <v>11</v>
+      </c>
+      <c r="D15" s="29">
+        <v>17.5</v>
+      </c>
+      <c r="E15" s="29">
+        <v>10</v>
+      </c>
+      <c r="F15" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="41">
+        <v>12</v>
+      </c>
+      <c r="D16" s="29">
+        <v>15</v>
+      </c>
+      <c r="E16" s="29">
+        <v>10</v>
+      </c>
+      <c r="F16" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="41">
+        <v>13</v>
+      </c>
+      <c r="D17" s="29">
+        <v>10</v>
+      </c>
+      <c r="E17" s="29">
+        <v>10</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="41">
+        <v>14</v>
+      </c>
+      <c r="D18" s="29">
+        <v>10</v>
+      </c>
+      <c r="E18" s="29">
+        <v>7.5</v>
+      </c>
+      <c r="F18" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C19" s="41">
+        <v>15</v>
+      </c>
+      <c r="D19" s="29">
+        <v>10</v>
+      </c>
+      <c r="E19" s="29">
+        <v>5</v>
+      </c>
+      <c r="F19" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C20" s="41">
+        <v>16</v>
+      </c>
+      <c r="D20" s="29">
+        <v>10</v>
+      </c>
+      <c r="E20" s="29">
+        <v>2.5</v>
+      </c>
+      <c r="F20" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C21" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="50" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C8" s="45" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="31">
-        <v>100</v>
-      </c>
-      <c r="E8" s="31">
-        <v>100</v>
-      </c>
-      <c r="F8" s="31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C9" s="43">
-        <v>5</v>
-      </c>
-      <c r="D9" s="31">
-        <v>25</v>
-      </c>
-      <c r="E9" s="31">
-        <v>15</v>
-      </c>
-      <c r="F9" s="31">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C10" s="43">
-        <v>6</v>
-      </c>
-      <c r="D10" s="31">
-        <v>20</v>
-      </c>
-      <c r="E10" s="31">
-        <v>12.5</v>
-      </c>
-      <c r="F10" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C11" s="43">
-        <v>7</v>
-      </c>
-      <c r="D11" s="31">
-        <v>20</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="D21" s="29">
         <v>10</v>
       </c>
-      <c r="F11" s="31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C12" s="43">
-        <v>8</v>
-      </c>
-      <c r="D12" s="31">
-        <v>20</v>
-      </c>
-      <c r="E12" s="31">
-        <v>10</v>
-      </c>
-      <c r="F12" s="31">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C13" s="43">
-        <v>9</v>
-      </c>
-      <c r="D13" s="31">
-        <v>20</v>
-      </c>
-      <c r="E13" s="31">
-        <v>10</v>
-      </c>
-      <c r="F13" s="31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" s="43">
-        <v>10</v>
-      </c>
-      <c r="D14" s="31">
-        <v>20</v>
-      </c>
-      <c r="E14" s="31">
-        <v>10</v>
-      </c>
-      <c r="F14" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="43">
-        <v>11</v>
-      </c>
-      <c r="D15" s="31">
-        <v>17.5</v>
-      </c>
-      <c r="E15" s="31">
-        <v>10</v>
-      </c>
-      <c r="F15" s="31">
+      <c r="E21" s="29">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="43">
-        <v>12</v>
-      </c>
-      <c r="D16" s="31">
-        <v>15</v>
-      </c>
-      <c r="E16" s="31">
-        <v>10</v>
-      </c>
-      <c r="F16" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="43">
-        <v>13</v>
-      </c>
-      <c r="D17" s="31">
-        <v>10</v>
-      </c>
-      <c r="E17" s="31">
-        <v>10</v>
-      </c>
-      <c r="F17" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="43">
-        <v>14</v>
-      </c>
-      <c r="D18" s="31">
-        <v>10</v>
-      </c>
-      <c r="E18" s="31">
-        <v>7.5</v>
-      </c>
-      <c r="F18" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="43">
-        <v>15</v>
-      </c>
-      <c r="D19" s="31">
-        <v>10</v>
-      </c>
-      <c r="E19" s="31">
-        <v>5</v>
-      </c>
-      <c r="F19" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="43">
-        <v>16</v>
-      </c>
-      <c r="D20" s="31">
-        <v>10</v>
-      </c>
-      <c r="E20" s="31">
-        <v>2.5</v>
-      </c>
-      <c r="F20" s="31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="31">
-        <v>10</v>
-      </c>
-      <c r="E21" s="31">
-        <v>0</v>
-      </c>
-      <c r="F21" s="31">
+      <c r="F21" s="29">
         <v>0</v>
       </c>
     </row>
@@ -3511,7 +3508,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3531,7 +3528,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3704,12 +3701,13 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="V15" sqref="V15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4130,7 +4128,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4584,7 +4582,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4602,7 +4600,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4686,9 +4684,6 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
       <c r="D14">
         <v>60</v>
       </c>
@@ -4709,8 +4704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140C462A-14EE-4CAF-AB62-253A6557DD8D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4725,7 +4720,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4966,8 +4961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6284C5A4-23C7-4E9C-AAD3-20E9F77D80CA}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5014,28 +5009,28 @@
       <c r="D6" s="6">
         <v>50</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <f>L7/100</f>
         <v>0</v>
       </c>
-      <c r="F6" s="32">
+      <c r="F6" s="30">
         <f t="shared" ref="F6:G6" si="0">M7/100</f>
         <v>0</v>
       </c>
-      <c r="G6" s="32">
+      <c r="G6" s="30">
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="26" t="s">
+      <c r="L6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="N6" s="24" t="s">
         <v>23</v>
       </c>
     </row>
@@ -5044,28 +5039,28 @@
       <c r="D7" s="6">
         <v>51</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7" s="30">
         <f t="shared" ref="E7:E18" si="1">L8/100</f>
         <v>0</v>
       </c>
-      <c r="F7" s="32">
+      <c r="F7" s="30">
         <f t="shared" ref="F7:F19" si="2">M8/100</f>
         <v>0</v>
       </c>
-      <c r="G7" s="32">
+      <c r="G7" s="30">
         <f t="shared" ref="G7:G19" si="3">N8/100</f>
         <v>0.7</v>
       </c>
-      <c r="K7" s="28">
+      <c r="K7" s="26">
         <v>50</v>
       </c>
-      <c r="L7" s="31">
+      <c r="L7" s="29">
         <v>0</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="29">
         <v>0</v>
       </c>
-      <c r="N7" s="31">
+      <c r="N7" s="29">
         <v>70</v>
       </c>
     </row>
@@ -5074,28 +5069,28 @@
       <c r="D8" s="6">
         <v>52</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="32">
+      <c r="G8" s="30">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="K8" s="28">
+      <c r="K8" s="26">
         <v>51</v>
       </c>
-      <c r="L8" s="29">
+      <c r="L8" s="27">
         <v>0</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="27">
         <v>0</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="27">
         <v>70</v>
       </c>
     </row>
@@ -5104,28 +5099,28 @@
       <c r="D9" s="6">
         <v>53</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F9" s="32">
+      <c r="F9" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="32">
+      <c r="G9" s="30">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="K9" s="28">
+      <c r="K9" s="26">
         <v>52</v>
       </c>
-      <c r="L9" s="29">
+      <c r="L9" s="27">
         <v>0</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="27">
         <v>0</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="27">
         <v>70</v>
       </c>
     </row>
@@ -5134,28 +5129,28 @@
       <c r="D10" s="6">
         <v>54</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F10" s="32">
+      <c r="F10" s="30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="30">
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="K10" s="28">
+      <c r="K10" s="26">
         <v>53</v>
       </c>
-      <c r="L10" s="29">
+      <c r="L10" s="27">
         <v>0</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="27">
         <v>0</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="27">
         <v>70</v>
       </c>
     </row>
@@ -5164,28 +5159,28 @@
       <c r="D11" s="6">
         <v>55</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11" s="30">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F11" s="32">
+      <c r="F11" s="30">
         <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
-      <c r="G11" s="32">
+      <c r="G11" s="30">
         <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
-      <c r="K11" s="28">
+      <c r="K11" s="26">
         <v>54</v>
       </c>
-      <c r="L11" s="29">
+      <c r="L11" s="27">
         <v>0</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="27">
         <v>0</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="27">
         <v>70</v>
       </c>
     </row>
@@ -5194,28 +5189,28 @@
       <c r="D12" s="6">
         <v>56</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="30">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="30">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="G12" s="32">
+      <c r="G12" s="30">
         <f t="shared" si="3"/>
         <v>0.45</v>
       </c>
-      <c r="K12" s="28">
+      <c r="K12" s="26">
         <v>55</v>
       </c>
-      <c r="L12" s="29">
+      <c r="L12" s="27">
         <v>10</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="27">
         <v>35</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="27">
         <v>50</v>
       </c>
     </row>
@@ -5224,28 +5219,28 @@
       <c r="D13" s="6">
         <v>57</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13" s="30">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F13" s="32">
+      <c r="F13" s="30">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="30">
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
-      <c r="K13" s="28">
+      <c r="K13" s="26">
         <v>56</v>
       </c>
-      <c r="L13" s="29">
+      <c r="L13" s="27">
         <v>10</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="27">
         <v>20</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="27">
         <v>45</v>
       </c>
     </row>
@@ -5254,28 +5249,28 @@
       <c r="D14" s="6">
         <v>58</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="30">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="F14" s="32">
+      <c r="F14" s="30">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="30">
         <f t="shared" si="3"/>
         <v>0.35</v>
       </c>
-      <c r="K14" s="28">
+      <c r="K14" s="26">
         <v>57</v>
       </c>
-      <c r="L14" s="29">
+      <c r="L14" s="27">
         <v>10</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="27">
         <v>20</v>
       </c>
-      <c r="N14" s="29">
+      <c r="N14" s="27">
         <v>40</v>
       </c>
     </row>
@@ -5284,28 +5279,28 @@
       <c r="D15" s="6">
         <v>59</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="30">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="F15" s="32">
+      <c r="F15" s="30">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="30">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="K15" s="28">
+      <c r="K15" s="26">
         <v>58</v>
       </c>
-      <c r="L15" s="29">
+      <c r="L15" s="27">
         <v>5</v>
       </c>
-      <c r="M15" s="29">
+      <c r="M15" s="27">
         <v>15</v>
       </c>
-      <c r="N15" s="29">
+      <c r="N15" s="27">
         <v>35</v>
       </c>
     </row>
@@ -5314,28 +5309,28 @@
       <c r="D16" s="6">
         <v>60</v>
       </c>
-      <c r="E16" s="32">
+      <c r="E16" s="30">
         <f t="shared" si="1"/>
         <v>0.05</v>
       </c>
-      <c r="F16" s="32">
+      <c r="F16" s="30">
         <f t="shared" si="2"/>
         <v>0.15</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="30">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="K16" s="28">
+      <c r="K16" s="26">
         <v>59</v>
       </c>
-      <c r="L16" s="29">
+      <c r="L16" s="27">
         <v>5</v>
       </c>
-      <c r="M16" s="29">
+      <c r="M16" s="27">
         <v>15</v>
       </c>
-      <c r="N16" s="29">
+      <c r="N16" s="27">
         <v>30</v>
       </c>
     </row>
@@ -5344,28 +5339,28 @@
       <c r="D17" s="6">
         <v>61</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="30">
         <f t="shared" si="1"/>
         <v>0.1</v>
       </c>
-      <c r="F17" s="32">
+      <c r="F17" s="30">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="G17" s="32">
+      <c r="G17" s="30">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="K17" s="28">
+      <c r="K17" s="26">
         <v>60</v>
       </c>
-      <c r="L17" s="29">
+      <c r="L17" s="27">
         <v>5</v>
       </c>
-      <c r="M17" s="29">
+      <c r="M17" s="27">
         <v>15</v>
       </c>
-      <c r="N17" s="29">
+      <c r="N17" s="27">
         <v>30</v>
       </c>
     </row>
@@ -5374,28 +5369,28 @@
       <c r="D18" s="6">
         <v>62</v>
       </c>
-      <c r="E18" s="32">
+      <c r="E18" s="30">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="30">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="G18" s="32">
+      <c r="G18" s="30">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="K18" s="28">
+      <c r="K18" s="26">
         <v>61</v>
       </c>
-      <c r="L18" s="29">
+      <c r="L18" s="27">
         <v>10</v>
       </c>
-      <c r="M18" s="29">
+      <c r="M18" s="27">
         <v>20</v>
       </c>
-      <c r="N18" s="29">
+      <c r="N18" s="27">
         <v>30</v>
       </c>
     </row>
@@ -5404,28 +5399,28 @@
       <c r="D19" s="6">
         <v>63</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="30">
         <f>L20/100</f>
         <v>0.2</v>
       </c>
-      <c r="F19" s="32">
+      <c r="F19" s="30">
         <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
-      <c r="G19" s="32">
+      <c r="G19" s="30">
         <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
-      <c r="K19" s="28">
+      <c r="K19" s="26">
         <v>62</v>
       </c>
-      <c r="L19" s="29">
+      <c r="L19" s="27">
         <v>15</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="27">
         <v>20</v>
       </c>
-      <c r="N19" s="29">
+      <c r="N19" s="27">
         <v>30</v>
       </c>
     </row>
@@ -5434,28 +5429,28 @@
       <c r="D20" s="6">
         <v>64</v>
       </c>
-      <c r="E20" s="32">
+      <c r="E20" s="30">
         <f t="shared" ref="E20:E26" si="4">L21/100</f>
         <v>0.2</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="30">
         <f t="shared" ref="F20:F26" si="5">M21/100</f>
         <v>0.2</v>
       </c>
-      <c r="G20" s="32">
+      <c r="G20" s="30">
         <f t="shared" ref="G20:G26" si="6">N21/100</f>
         <v>0.3</v>
       </c>
-      <c r="K20" s="28">
+      <c r="K20" s="26">
         <v>63</v>
       </c>
-      <c r="L20" s="29">
+      <c r="L20" s="27">
         <v>20</v>
       </c>
-      <c r="M20" s="29">
+      <c r="M20" s="27">
         <v>20</v>
       </c>
-      <c r="N20" s="29">
+      <c r="N20" s="27">
         <v>30</v>
       </c>
     </row>
@@ -5464,28 +5459,28 @@
       <c r="D21" s="6">
         <v>65</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="30">
         <f t="shared" si="4"/>
         <v>0.2</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="30">
         <f t="shared" si="5"/>
         <v>0.2</v>
       </c>
-      <c r="G21" s="32">
+      <c r="G21" s="30">
         <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
-      <c r="K21" s="28">
+      <c r="K21" s="26">
         <v>64</v>
       </c>
-      <c r="L21" s="29">
+      <c r="L21" s="27">
         <v>20</v>
       </c>
-      <c r="M21" s="29">
+      <c r="M21" s="27">
         <v>20</v>
       </c>
-      <c r="N21" s="29">
+      <c r="N21" s="27">
         <v>30</v>
       </c>
     </row>
@@ -5494,28 +5489,28 @@
       <c r="D22" s="6">
         <v>66</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="30">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="30">
         <f t="shared" si="5"/>
         <v>0.3</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="30">
         <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
-      <c r="K22" s="28">
+      <c r="K22" s="26">
         <v>65</v>
       </c>
-      <c r="L22" s="29">
+      <c r="L22" s="27">
         <v>20</v>
       </c>
-      <c r="M22" s="29">
+      <c r="M22" s="27">
         <v>20</v>
       </c>
-      <c r="N22" s="29">
+      <c r="N22" s="27">
         <v>30</v>
       </c>
     </row>
@@ -5524,28 +5519,28 @@
       <c r="D23" s="6">
         <v>67</v>
       </c>
-      <c r="E23" s="32">
+      <c r="E23" s="30">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="30">
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="30">
         <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
-      <c r="K23" s="28">
+      <c r="K23" s="26">
         <v>66</v>
       </c>
-      <c r="L23" s="29">
+      <c r="L23" s="27">
         <v>25</v>
       </c>
-      <c r="M23" s="29">
+      <c r="M23" s="27">
         <v>30</v>
       </c>
-      <c r="N23" s="29">
+      <c r="N23" s="27">
         <v>30</v>
       </c>
     </row>
@@ -5554,28 +5549,28 @@
       <c r="D24" s="6">
         <v>68</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="30">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="30">
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="G24" s="32">
+      <c r="G24" s="30">
         <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="26">
         <v>67</v>
       </c>
-      <c r="L24" s="29">
+      <c r="L24" s="27">
         <v>25</v>
       </c>
-      <c r="M24" s="29">
+      <c r="M24" s="27">
         <v>35</v>
       </c>
-      <c r="N24" s="29">
+      <c r="N24" s="27">
         <v>30</v>
       </c>
     </row>
@@ -5584,28 +5579,28 @@
       <c r="D25" s="6">
         <v>69</v>
       </c>
-      <c r="E25" s="32">
+      <c r="E25" s="30">
         <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="30">
         <f t="shared" si="5"/>
         <v>0.35</v>
       </c>
-      <c r="G25" s="32">
+      <c r="G25" s="30">
         <f t="shared" si="6"/>
         <v>0.3</v>
       </c>
-      <c r="K25" s="28">
+      <c r="K25" s="26">
         <v>68</v>
       </c>
-      <c r="L25" s="29">
+      <c r="L25" s="27">
         <v>25</v>
       </c>
-      <c r="M25" s="29">
+      <c r="M25" s="27">
         <v>35</v>
       </c>
-      <c r="N25" s="29">
+      <c r="N25" s="27">
         <v>30</v>
       </c>
     </row>
@@ -5614,28 +5609,28 @@
       <c r="D26" s="6">
         <v>70</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="30">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="30">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="G26" s="32">
+      <c r="G26" s="30">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="K26" s="28">
+      <c r="K26" s="26">
         <v>69</v>
       </c>
-      <c r="L26" s="29">
+      <c r="L26" s="27">
         <v>25</v>
       </c>
-      <c r="M26" s="29">
+      <c r="M26" s="27">
         <v>35</v>
       </c>
-      <c r="N26" s="29">
+      <c r="N26" s="27">
         <v>30</v>
       </c>
     </row>
@@ -5645,16 +5640,16 @@
       <c r="E27" s="6"/>
       <c r="F27" s="16"/>
       <c r="G27" s="16"/>
-      <c r="K27" s="30" t="s">
+      <c r="K27" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="27">
         <v>100</v>
       </c>
-      <c r="M27" s="29">
+      <c r="M27" s="27">
         <v>100</v>
       </c>
-      <c r="N27" s="29">
+      <c r="N27" s="27">
         <v>100</v>
       </c>
     </row>

--- a/inputs/data_raw/Data_SJFC_Decrements_AV2020.xlsx
+++ b/inputs/data_raw/Data_SJFC_Decrements_AV2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF6A17C-F0B6-4990-99E5-4440E398000B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EA49FDE-C477-43DA-A549-7F7857F182B6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ratios" sheetId="43" r:id="rId1"/>
@@ -1008,16 +1008,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>448349</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>162267</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>257849</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>124167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1040,7 +1040,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6915150" y="1714500"/>
+          <a:off x="5505450" y="1104900"/>
           <a:ext cx="4829849" cy="2448267"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1106,16 +1106,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>1057960</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>162392</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>315010</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>29042</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1138,7 +1138,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4714875" y="4829175"/>
+          <a:off x="9382125" y="2200275"/>
           <a:ext cx="4906060" cy="3343742"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1926,7 +1926,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57F0179D-30E8-4C62-9A5E-014F54719930}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C8" sqref="C8:H24"/>
     </sheetView>
   </sheetViews>
@@ -2857,7 +2857,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F17"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,7 +2963,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D20"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3508,7 +3508,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3701,7 +3701,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="V15" sqref="V15"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4128,7 +4128,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4579,10 +4579,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3AE2EB2-CA42-4FE6-8F24-6446CEAEA505}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4590,12 +4590,12 @@
     <col min="1" max="1" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4611,7 +4611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>5</v>
       </c>
@@ -4627,67 +4627,99 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D7">
         <v>25</v>
       </c>
       <c r="E7">
+        <f>G7/100</f>
+        <v>2.72E-4</v>
+      </c>
+      <c r="G7">
         <v>2.7199999999999998E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8">
+        <f t="shared" ref="E8:E14" si="0">G8/100</f>
+        <v>3.0299999999999999E-4</v>
+      </c>
+      <c r="G8">
         <v>3.0300000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D9">
         <v>35</v>
       </c>
       <c r="E9">
+        <f t="shared" si="0"/>
+        <v>6.1300000000000005E-4</v>
+      </c>
+      <c r="G9">
         <v>6.13E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D10">
         <v>40</v>
       </c>
       <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.366E-3</v>
+      </c>
+      <c r="G10">
         <v>0.1366</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D11">
         <v>45</v>
       </c>
       <c r="E11">
+        <f t="shared" si="0"/>
+        <v>2.519E-3</v>
+      </c>
+      <c r="G11">
         <v>0.25190000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D12">
         <v>50</v>
       </c>
       <c r="E12">
+        <f t="shared" si="0"/>
+        <v>3.2400000000000003E-3</v>
+      </c>
+      <c r="G12">
         <v>0.32400000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D13">
         <v>55</v>
       </c>
       <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2.6310000000000001E-3</v>
+      </c>
+      <c r="G13">
         <v>0.2631</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D14">
         <v>60</v>
       </c>
       <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.1909999999999998E-3</v>
+      </c>
+      <c r="G14">
         <v>0.21909999999999999</v>
       </c>
     </row>
@@ -4704,8 +4736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140C462A-14EE-4CAF-AB62-253A6557DD8D}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4889,7 +4921,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4940,7 +4972,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I44" sqref="I44"/>
+      <selection activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
